--- a/excelData/批量上传excel模版1217/4建库信息表.test.xlsx
+++ b/excelData/批量上传excel模版1217/4建库信息表.test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heguangliang/PycharmProjects/databaseDemo/excelData/批量上传excel模版1217/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77077337-5BC5-F84D-8648-102683677664}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D8DBF-D034-A648-8657-A1B14720E01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 甲基化建库表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -696,9 +696,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Clinic</t>
-  </si>
-  <si>
     <t>试剂批次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2219,6 +2216,10 @@
   </si>
   <si>
     <t>19P7354480_1_m1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2594,7 +2595,7 @@
   <dimension ref="A1:S169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2:E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -2617,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2641,7 +2642,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>222</v>
@@ -2673,16 +2674,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -2726,16 +2727,16 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -2779,16 +2780,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -2829,16 +2830,16 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -2879,16 +2880,16 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>202</v>
@@ -2929,16 +2930,16 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>203</v>
@@ -2979,16 +2980,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>204</v>
@@ -3029,16 +3030,16 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>205</v>
@@ -3079,16 +3080,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>206</v>
@@ -3129,16 +3130,16 @@
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>207</v>
@@ -3179,16 +3180,16 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>208</v>
@@ -3229,16 +3230,16 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>209</v>
@@ -3279,16 +3280,16 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>210</v>
@@ -3329,16 +3330,16 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>211</v>
@@ -3379,16 +3380,16 @@
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>212</v>
@@ -3429,16 +3430,16 @@
         <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>213</v>
@@ -3479,16 +3480,16 @@
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -3529,16 +3530,16 @@
         <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -3579,16 +3580,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>21</v>
@@ -3629,16 +3630,16 @@
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
@@ -3679,16 +3680,16 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>202</v>
@@ -3729,16 +3730,16 @@
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>203</v>
@@ -3779,16 +3780,16 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>204</v>
@@ -3829,16 +3830,16 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>205</v>
@@ -3879,16 +3880,16 @@
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>206</v>
@@ -3929,16 +3930,16 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>207</v>
@@ -3979,16 +3980,16 @@
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>208</v>
@@ -4029,16 +4030,16 @@
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>209</v>
@@ -4079,16 +4080,16 @@
         <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>210</v>
@@ -4129,16 +4130,16 @@
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -4179,16 +4180,16 @@
         <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>19</v>
@@ -4229,16 +4230,16 @@
         <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>21</v>
@@ -4279,16 +4280,16 @@
         <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
@@ -4329,16 +4330,16 @@
         <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>202</v>
@@ -4379,16 +4380,16 @@
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>203</v>
@@ -4429,16 +4430,16 @@
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>204</v>
@@ -4479,16 +4480,16 @@
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>205</v>
@@ -4529,16 +4530,16 @@
         <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>206</v>
@@ -4579,16 +4580,16 @@
         <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>207</v>
@@ -4629,16 +4630,16 @@
         <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>208</v>
@@ -4679,16 +4680,16 @@
         <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>209</v>
@@ -4729,16 +4730,16 @@
         <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>210</v>
@@ -4779,16 +4780,16 @@
         <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>211</v>
@@ -4829,16 +4830,16 @@
         <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>212</v>
@@ -4879,16 +4880,16 @@
         <v>69</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>213</v>
@@ -4929,16 +4930,16 @@
         <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
@@ -4979,16 +4980,16 @@
         <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>19</v>
@@ -5029,16 +5030,16 @@
         <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>21</v>
@@ -5079,16 +5080,16 @@
         <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>23</v>
@@ -5129,16 +5130,16 @@
         <v>74</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>202</v>
@@ -5179,16 +5180,16 @@
         <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>203</v>
@@ -5229,16 +5230,16 @@
         <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>204</v>
@@ -5279,16 +5280,16 @@
         <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>205</v>
@@ -5329,16 +5330,16 @@
         <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>206</v>
@@ -5379,16 +5380,16 @@
         <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>207</v>
@@ -5429,16 +5430,16 @@
         <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>208</v>
@@ -5479,16 +5480,16 @@
         <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>209</v>
@@ -5529,16 +5530,16 @@
         <v>82</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>210</v>
@@ -5579,16 +5580,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>211</v>
@@ -5629,16 +5630,16 @@
         <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>212</v>
@@ -5679,16 +5680,16 @@
         <v>85</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>213</v>
@@ -5729,16 +5730,16 @@
         <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
@@ -5779,16 +5780,16 @@
         <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>214</v>
@@ -5829,16 +5830,16 @@
         <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>21</v>
@@ -5879,16 +5880,16 @@
         <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>23</v>
@@ -5929,16 +5930,16 @@
         <v>90</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>202</v>
@@ -5979,16 +5980,16 @@
         <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>203</v>
@@ -6029,16 +6030,16 @@
         <v>92</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>204</v>
@@ -6079,16 +6080,16 @@
         <v>93</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>205</v>
@@ -6129,16 +6130,16 @@
         <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>19</v>
@@ -6179,16 +6180,16 @@
         <v>95</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>206</v>
@@ -6229,16 +6230,16 @@
         <v>96</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>207</v>
@@ -6279,16 +6280,16 @@
         <v>97</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>208</v>
@@ -6329,16 +6330,16 @@
         <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>209</v>
@@ -6379,16 +6380,16 @@
         <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>210</v>
@@ -6429,16 +6430,16 @@
         <v>100</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>211</v>
@@ -6479,16 +6480,16 @@
         <v>101</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>212</v>
@@ -6529,16 +6530,16 @@
         <v>102</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>213</v>
@@ -6579,16 +6580,16 @@
         <v>103</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>214</v>
@@ -6629,16 +6630,16 @@
         <v>104</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>215</v>
@@ -6679,16 +6680,16 @@
         <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>216</v>
@@ -6729,16 +6730,16 @@
         <v>106</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>217</v>
@@ -6779,16 +6780,16 @@
         <v>107</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>218</v>
@@ -6829,16 +6830,16 @@
         <v>108</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>219</v>
@@ -6879,16 +6880,16 @@
         <v>109</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>220</v>
@@ -6929,16 +6930,16 @@
         <v>110</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>221</v>
@@ -6979,16 +6980,16 @@
         <v>111</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
@@ -7029,16 +7030,16 @@
         <v>112</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>215</v>
@@ -7079,16 +7080,16 @@
         <v>113</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>21</v>
@@ -7129,16 +7130,16 @@
         <v>114</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
@@ -7179,16 +7180,16 @@
         <v>115</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>202</v>
@@ -7229,16 +7230,16 @@
         <v>116</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>203</v>
@@ -7279,16 +7280,16 @@
         <v>117</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>204</v>
@@ -7329,16 +7330,16 @@
         <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>205</v>
@@ -7379,16 +7380,16 @@
         <v>119</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>19</v>
@@ -7429,16 +7430,16 @@
         <v>120</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>206</v>
@@ -7479,16 +7480,16 @@
         <v>121</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>207</v>
@@ -7529,16 +7530,16 @@
         <v>122</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>208</v>
@@ -7579,16 +7580,16 @@
         <v>123</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>209</v>
@@ -7629,16 +7630,16 @@
         <v>124</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>210</v>
@@ -7679,16 +7680,16 @@
         <v>125</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>211</v>
@@ -7729,16 +7730,16 @@
         <v>126</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>212</v>
@@ -7779,16 +7780,16 @@
         <v>127</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>213</v>
@@ -7829,16 +7830,16 @@
         <v>128</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>214</v>
@@ -7879,16 +7880,16 @@
         <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>215</v>
@@ -7929,16 +7930,16 @@
         <v>130</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>216</v>
@@ -7979,16 +7980,16 @@
         <v>131</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>217</v>
@@ -8029,16 +8030,16 @@
         <v>132</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>218</v>
@@ -8079,16 +8080,16 @@
         <v>133</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>219</v>
@@ -8129,16 +8130,16 @@
         <v>134</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>220</v>
@@ -8179,16 +8180,16 @@
         <v>135</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>221</v>
@@ -8229,16 +8230,16 @@
         <v>136</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>15</v>
@@ -8279,16 +8280,16 @@
         <v>137</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>19</v>
@@ -8329,16 +8330,16 @@
         <v>138</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>21</v>
@@ -8379,16 +8380,16 @@
         <v>139</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>23</v>
@@ -8429,16 +8430,16 @@
         <v>140</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>202</v>
@@ -8479,16 +8480,16 @@
         <v>141</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>203</v>
@@ -8529,16 +8530,16 @@
         <v>142</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>204</v>
@@ -8579,16 +8580,16 @@
         <v>143</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>205</v>
@@ -8629,16 +8630,16 @@
         <v>144</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>206</v>
@@ -8679,16 +8680,16 @@
         <v>145</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>207</v>
@@ -8729,16 +8730,16 @@
         <v>146</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>208</v>
@@ -8779,16 +8780,16 @@
         <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>209</v>
@@ -8829,16 +8830,16 @@
         <v>148</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>210</v>
@@ -8879,16 +8880,16 @@
         <v>149</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>211</v>
@@ -8929,16 +8930,16 @@
         <v>150</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>212</v>
@@ -8979,16 +8980,16 @@
         <v>151</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>213</v>
@@ -9029,16 +9030,16 @@
         <v>152</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>15</v>
@@ -9056,7 +9057,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L129" s="1">
         <v>1.99</v>
@@ -9082,16 +9083,16 @@
         <v>153</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>19</v>
@@ -9109,7 +9110,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L130" s="1">
         <v>1.92</v>
@@ -9135,16 +9136,16 @@
         <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>21</v>
@@ -9162,7 +9163,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L131" s="1">
         <v>1.64</v>
@@ -9188,16 +9189,16 @@
         <v>155</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>23</v>
@@ -9215,7 +9216,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L132" s="1">
         <v>1.55</v>
@@ -9241,16 +9242,16 @@
         <v>156</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>202</v>
@@ -9268,7 +9269,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L133" s="1">
         <v>1.46</v>
@@ -9294,16 +9295,16 @@
         <v>157</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>203</v>
@@ -9321,7 +9322,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L134" s="1">
         <v>1.44</v>
@@ -9347,16 +9348,16 @@
         <v>158</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>204</v>
@@ -9374,7 +9375,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L135" s="1">
         <v>1.42</v>
@@ -9400,16 +9401,16 @@
         <v>159</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>205</v>
@@ -9427,7 +9428,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L136" s="1">
         <v>1.41</v>
@@ -9453,16 +9454,16 @@
         <v>160</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>206</v>
@@ -9480,7 +9481,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L137" s="1">
         <v>1.3</v>
@@ -9506,16 +9507,16 @@
         <v>161</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>207</v>
@@ -9533,7 +9534,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L138" s="1">
         <v>1.28</v>
@@ -9559,16 +9560,16 @@
         <v>162</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>208</v>
@@ -9586,7 +9587,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L139" s="1">
         <v>1.27</v>
@@ -9612,16 +9613,16 @@
         <v>163</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>209</v>
@@ -9639,7 +9640,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L140" s="1">
         <v>1.25</v>
@@ -9665,16 +9666,16 @@
         <v>164</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>210</v>
@@ -9692,7 +9693,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L141" s="1">
         <v>1.25</v>
@@ -9718,16 +9719,16 @@
         <v>165</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>211</v>
@@ -9745,7 +9746,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L142" s="1">
         <v>1.21</v>
@@ -9771,16 +9772,16 @@
         <v>166</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>212</v>
@@ -9798,7 +9799,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L143" s="1">
         <v>1.1100000000000001</v>
@@ -9824,16 +9825,16 @@
         <v>167</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>213</v>
@@ -9851,7 +9852,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L144" s="1">
         <v>1.07</v>
@@ -9877,16 +9878,16 @@
         <v>168</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>15</v>
@@ -9904,7 +9905,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L145" s="1">
         <v>0.92800000000000005</v>
@@ -9930,16 +9931,16 @@
         <v>169</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>19</v>
@@ -9957,7 +9958,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L146" s="1">
         <v>31.6</v>
@@ -9983,16 +9984,16 @@
         <v>170</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>21</v>
@@ -10010,7 +10011,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L147" s="1">
         <v>3.8</v>
@@ -10036,16 +10037,16 @@
         <v>171</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>23</v>
@@ -10063,7 +10064,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L148" s="1">
         <v>2.54</v>
@@ -10089,16 +10090,16 @@
         <v>172</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>214</v>
@@ -10116,7 +10117,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L149" s="1">
         <v>0.47599999999999998</v>
@@ -10142,16 +10143,16 @@
         <v>173</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>203</v>
@@ -10169,7 +10170,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L150" s="1">
         <v>2.14</v>
@@ -10195,16 +10196,16 @@
         <v>174</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>204</v>
@@ -10222,7 +10223,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L151" s="1">
         <v>2.12</v>
@@ -10248,16 +10249,16 @@
         <v>175</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>205</v>
@@ -10275,7 +10276,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L152" s="1">
         <v>2.1</v>
@@ -10301,16 +10302,16 @@
         <v>176</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>206</v>
@@ -10328,7 +10329,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L153" s="1">
         <v>0.89900000000000002</v>
@@ -10354,16 +10355,16 @@
         <v>177</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>207</v>
@@ -10381,7 +10382,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L154" s="1">
         <v>0.81399999999999995</v>
@@ -10407,16 +10408,16 @@
         <v>178</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>208</v>
@@ -10434,7 +10435,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L155" s="1">
         <v>0.80200000000000005</v>
@@ -10460,16 +10461,16 @@
         <v>179</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>209</v>
@@ -10487,7 +10488,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L156" s="1">
         <v>0.77400000000000002</v>
@@ -10513,16 +10514,16 @@
         <v>180</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>210</v>
@@ -10540,7 +10541,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L157" s="1">
         <v>0.74</v>
@@ -10566,16 +10567,16 @@
         <v>181</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>211</v>
@@ -10593,7 +10594,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L158" s="1">
         <v>0.71199999999999997</v>
@@ -10619,16 +10620,16 @@
         <v>182</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>212</v>
@@ -10646,7 +10647,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L159" s="1">
         <v>0.67800000000000005</v>
@@ -10672,16 +10673,16 @@
         <v>183</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>213</v>
@@ -10699,7 +10700,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L160" s="1">
         <v>0.64600000000000002</v>
@@ -10725,16 +10726,16 @@
         <v>184</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>214</v>
@@ -10752,7 +10753,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L161" s="1">
         <v>0.63800000000000001</v>
@@ -10778,16 +10779,16 @@
         <v>185</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>215</v>
@@ -10805,7 +10806,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L162" s="1">
         <v>0.63</v>
@@ -10831,16 +10832,16 @@
         <v>186</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>216</v>
@@ -10858,7 +10859,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L163" s="1">
         <v>0.622</v>
@@ -10884,16 +10885,16 @@
         <v>187</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>217</v>
@@ -10911,7 +10912,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L164" s="1">
         <v>0.60399999999999998</v>
@@ -10937,16 +10938,16 @@
         <v>188</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>218</v>
@@ -10964,7 +10965,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L165" s="1">
         <v>0.59599999999999997</v>
@@ -10990,16 +10991,16 @@
         <v>189</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>219</v>
@@ -11017,7 +11018,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L166" s="1">
         <v>0.53400000000000003</v>
@@ -11043,16 +11044,16 @@
         <v>190</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>220</v>
@@ -11070,7 +11071,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L167" s="1">
         <v>0.39200000000000002</v>
@@ -11096,16 +11097,16 @@
         <v>191</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>221</v>
@@ -11123,7 +11124,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L168" s="1">
         <v>0.33800000000000002</v>
@@ -11149,16 +11150,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>202</v>
@@ -11176,7 +11177,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L169" s="1">
         <v>0.47599999999999998</v>
